--- a/temp/shipment_reco.xlsx
+++ b/temp/shipment_reco.xlsx
@@ -620,13 +620,13 @@
         <v>414</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="E2" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="G2" s="6" t="n">
         <v>2935</v>
@@ -683,13 +683,13 @@
         <v>700</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>286</v>
+        <v>700</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="G4" s="8" t="n">
         <v>3507</v>
@@ -731,7 +731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -793,335 +793,335 @@
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>840307123244</t>
+          <t>840307127174</t>
         </is>
       </c>
       <c r="C2" s="10" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D2" s="10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="10" t="n">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="G2" s="10" t="n">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="H2" s="10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="n"/>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>840307123442</t>
+          <t>840307129239</t>
         </is>
       </c>
       <c r="C3" s="10" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" s="10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F3" s="10" t="n">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="G3" s="10" t="n">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="H3" s="10" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="n"/>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>840307124807</t>
+          <t>840307129260</t>
         </is>
       </c>
       <c r="C4" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G4" s="10" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H4" s="10" t="n">
-        <v>0</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>840307127174</t>
+          <t>840307131669</t>
         </is>
       </c>
       <c r="C5" s="10" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="G5" s="10" t="n">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="H5" s="10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="n"/>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>840307127303</t>
+          <t>840307132178</t>
         </is>
       </c>
       <c r="C6" s="10" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="G6" s="10" t="n">
-        <v>18</v>
+        <v>263</v>
       </c>
       <c r="H6" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="n"/>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>840307129239</t>
+          <t>840307134349</t>
         </is>
       </c>
       <c r="C7" s="10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D7" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G7" s="10" t="n">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="H7" s="10" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="n"/>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>840307129260</t>
+          <t>840307135599</t>
         </is>
       </c>
       <c r="C8" s="10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" s="10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G8" s="10" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H8" s="10" t="n">
-        <v>-17</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="n"/>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>840307129420</t>
+          <t>840307145031</t>
         </is>
       </c>
       <c r="C9" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G9" s="10" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H9" s="10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="n"/>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>840307129482</t>
+          <t>840307146304</t>
         </is>
       </c>
       <c r="C10" s="10" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="G10" s="10" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="H10" s="10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="n"/>
       <c r="B11" s="9" t="inlineStr">
         <is>
-          <t>840307129505</t>
+          <t>840307148056</t>
         </is>
       </c>
       <c r="C11" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G11" s="10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H11" s="10" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="n"/>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>840307129581</t>
+          <t>840307148759</t>
         </is>
       </c>
       <c r="C12" s="10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D12" s="10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G12" s="10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H12" s="10" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="n"/>
       <c r="B13" s="9" t="inlineStr">
         <is>
-          <t>840307131669</t>
+          <t>840307151643</t>
         </is>
       </c>
       <c r="C13" s="10" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D13" s="10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="G13" s="10" t="n">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H13" s="10" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="n"/>
       <c r="B14" s="9" t="inlineStr">
         <is>
-          <t>840307132178</t>
+          <t>840307155542</t>
         </is>
       </c>
       <c r="C14" s="10" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D14" s="10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="G14" s="10" t="n">
-        <v>263</v>
+        <v>51</v>
       </c>
       <c r="H14" s="10" t="n">
         <v>1</v>
@@ -1131,1558 +1131,258 @@
       <c r="A15" s="11" t="n"/>
       <c r="B15" s="9" t="inlineStr">
         <is>
-          <t>840307134325</t>
+          <t>840307159977</t>
         </is>
       </c>
       <c r="C15" s="10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D15" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F15" s="10" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G15" s="10" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H15" s="10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="n"/>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>840307134349</t>
+          <t>840307160096</t>
         </is>
       </c>
       <c r="C16" s="10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="10" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G16" s="10" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="H16" s="10" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="n"/>
       <c r="B17" s="9" t="inlineStr">
         <is>
-          <t>840307134394</t>
+          <t>840307167224</t>
         </is>
       </c>
       <c r="C17" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="10" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G17" s="10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H17" s="10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="n"/>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>840307134417</t>
+          <t>840307168276</t>
         </is>
       </c>
       <c r="C18" s="10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D18" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F18" s="10" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="G18" s="10" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="H18" s="10" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="9" t="inlineStr">
         <is>
-          <t>840307134424</t>
+          <t>840307178497</t>
         </is>
       </c>
       <c r="C19" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D19" s="10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" s="10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19" s="10" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G19" s="10" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H19" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
+      <c r="A20" s="9" t="inlineStr">
+        <is>
+          <t>FBA16NVMXLSM</t>
+        </is>
+      </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>840307134530</t>
+          <t>840307168764</t>
         </is>
       </c>
       <c r="C20" s="10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E20" s="10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F20" s="10" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="G20" s="10" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H20" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="n"/>
       <c r="B21" s="9" t="inlineStr">
         <is>
-          <t>840307134554</t>
+          <t>840307168771</t>
         </is>
       </c>
       <c r="C21" s="10" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D21" s="10" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E21" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="10" t="n">
-        <v>8</v>
+        <v>198</v>
       </c>
       <c r="G21" s="10" t="n">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="H21" s="10" t="n">
-        <v>0</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="n"/>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>840307134561</t>
+          <t>840307177452</t>
         </is>
       </c>
       <c r="C22" s="10" t="n">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="D22" s="10" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E22" s="10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F22" s="10" t="n">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="G22" s="10" t="n">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="H22" s="10" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
+      <c r="A23" s="12" t="n"/>
       <c r="B23" s="9" t="inlineStr">
         <is>
-          <t>840307135407</t>
+          <t>840307177469</t>
         </is>
       </c>
       <c r="C23" s="10" t="n">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="D23" s="10" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="E23" s="10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F23" s="10" t="n">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="G23" s="10" t="n">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="H23" s="10" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="B24" s="9" t="inlineStr">
-        <is>
-          <t>840307135599</t>
-        </is>
-      </c>
-      <c r="C24" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F24" s="10" t="n">
-        <v>24</v>
-      </c>
-      <c r="G24" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="H24" s="10" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="B25" s="9" t="inlineStr">
-        <is>
-          <t>840307136398</t>
-        </is>
-      </c>
-      <c r="C25" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G25" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="H25" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="B26" s="9" t="inlineStr">
-        <is>
-          <t>840307136718</t>
-        </is>
-      </c>
-      <c r="C26" s="10" t="n">
-        <v>14</v>
-      </c>
-      <c r="D26" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="10" t="n">
-        <v>14</v>
-      </c>
-      <c r="F26" s="10" t="n">
-        <v>84</v>
-      </c>
-      <c r="G26" s="10" t="n">
-        <v>84</v>
-      </c>
-      <c r="H26" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="B27" s="9" t="inlineStr">
-        <is>
-          <t>840307137180</t>
-        </is>
-      </c>
-      <c r="C27" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="G27" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="H27" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="B28" s="9" t="inlineStr">
-        <is>
-          <t>840307138705</t>
-        </is>
-      </c>
-      <c r="C28" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="G28" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="H28" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="n"/>
-      <c r="B29" s="9" t="inlineStr">
-        <is>
-          <t>840307140050</t>
-        </is>
-      </c>
-      <c r="C29" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D29" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" s="10" t="n">
-        <v>40</v>
-      </c>
-      <c r="G29" s="10" t="n">
-        <v>40</v>
-      </c>
-      <c r="H29" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="n"/>
-      <c r="B30" s="9" t="inlineStr">
-        <is>
-          <t>840307145031</t>
-        </is>
-      </c>
-      <c r="C30" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D30" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="10" t="n">
-        <v>40</v>
-      </c>
-      <c r="G30" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H30" s="10" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="B31" s="9" t="inlineStr">
-        <is>
-          <t>840307146212</t>
-        </is>
-      </c>
-      <c r="C31" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G31" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="H31" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="B32" s="9" t="inlineStr">
-        <is>
-          <t>840307146304</t>
-        </is>
-      </c>
-      <c r="C32" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="G32" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="B33" s="9" t="inlineStr">
-        <is>
-          <t>840307148056</t>
-        </is>
-      </c>
-      <c r="C33" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D33" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="F33" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="G33" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="10" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="B34" s="9" t="inlineStr">
-        <is>
-          <t>840307148735</t>
-        </is>
-      </c>
-      <c r="C34" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G34" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="H34" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="B35" s="9" t="inlineStr">
-        <is>
-          <t>840307148759</t>
-        </is>
-      </c>
-      <c r="C35" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="D35" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="F35" s="10" t="n">
-        <v>36</v>
-      </c>
-      <c r="G35" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="10" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="B36" s="9" t="inlineStr">
-        <is>
-          <t>840307149381</t>
-        </is>
-      </c>
-      <c r="C36" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D36" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F36" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G36" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="H36" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="B37" s="9" t="inlineStr">
-        <is>
-          <t>840307149398</t>
-        </is>
-      </c>
-      <c r="C37" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="D37" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="F37" s="10" t="n">
-        <v>54</v>
-      </c>
-      <c r="G37" s="10" t="n">
-        <v>54</v>
-      </c>
-      <c r="H37" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="B38" s="9" t="inlineStr">
-        <is>
-          <t>840307149404</t>
-        </is>
-      </c>
-      <c r="C38" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D38" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F38" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G38" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="H38" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="B39" s="9" t="inlineStr">
-        <is>
-          <t>840307149589</t>
-        </is>
-      </c>
-      <c r="C39" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D39" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="F39" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="G39" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="H39" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="B40" s="9" t="inlineStr">
-        <is>
-          <t>840307149626</t>
-        </is>
-      </c>
-      <c r="C40" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D40" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F40" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G40" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="H40" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="B41" s="9" t="inlineStr">
-        <is>
-          <t>840307149732</t>
-        </is>
-      </c>
-      <c r="C41" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="G41" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="H41" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="11" t="n"/>
-      <c r="B42" s="9" t="inlineStr">
-        <is>
-          <t>840307150141</t>
-        </is>
-      </c>
-      <c r="C42" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="G42" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H42" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="11" t="n"/>
-      <c r="B43" s="9" t="inlineStr">
-        <is>
-          <t>840307150158</t>
-        </is>
-      </c>
-      <c r="C43" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D43" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="F43" s="10" t="n">
-        <v>60</v>
-      </c>
-      <c r="G43" s="10" t="n">
-        <v>60</v>
-      </c>
-      <c r="H43" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="B44" s="9" t="inlineStr">
-        <is>
-          <t>840307150431</t>
-        </is>
-      </c>
-      <c r="C44" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D44" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F44" s="10" t="n">
-        <v>40</v>
-      </c>
-      <c r="G44" s="10" t="n">
-        <v>40</v>
-      </c>
-      <c r="H44" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="B45" s="9" t="inlineStr">
-        <is>
-          <t>840307151612</t>
-        </is>
-      </c>
-      <c r="C45" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D45" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F45" s="10" t="n">
-        <v>24</v>
-      </c>
-      <c r="G45" s="10" t="n">
-        <v>24</v>
-      </c>
-      <c r="H45" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="B46" s="9" t="inlineStr">
-        <is>
-          <t>840307151643</t>
-        </is>
-      </c>
-      <c r="C46" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="D46" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="F46" s="10" t="n">
-        <v>54</v>
-      </c>
-      <c r="G46" s="10" t="n">
-        <v>55</v>
-      </c>
-      <c r="H46" s="10" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="B47" s="9" t="inlineStr">
-        <is>
-          <t>840307152046</t>
-        </is>
-      </c>
-      <c r="C47" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="D47" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="F47" s="10" t="n">
-        <v>140</v>
-      </c>
-      <c r="G47" s="10" t="n">
-        <v>140</v>
-      </c>
-      <c r="H47" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="B48" s="9" t="inlineStr">
-        <is>
-          <t>840307153708</t>
-        </is>
-      </c>
-      <c r="C48" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D48" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F48" s="10" t="n">
-        <v>16</v>
-      </c>
-      <c r="G48" s="10" t="n">
-        <v>16</v>
-      </c>
-      <c r="H48" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="B49" s="9" t="inlineStr">
-        <is>
-          <t>840307153883</t>
-        </is>
-      </c>
-      <c r="C49" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="G49" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="H49" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="B50" s="9" t="inlineStr">
-        <is>
-          <t>840307154361</t>
-        </is>
-      </c>
-      <c r="C50" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="G50" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="H50" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="B51" s="9" t="inlineStr">
-        <is>
-          <t>840307155320</t>
-        </is>
-      </c>
-      <c r="C51" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D51" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="F51" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="G51" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H51" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="B52" s="9" t="inlineStr">
-        <is>
-          <t>840307155542</t>
-        </is>
-      </c>
-      <c r="C52" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="D52" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="F52" s="10" t="n">
-        <v>52</v>
-      </c>
-      <c r="G52" s="10" t="n">
-        <v>51</v>
-      </c>
-      <c r="H52" s="10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="B53" s="9" t="inlineStr">
-        <is>
-          <t>840307158604</t>
-        </is>
-      </c>
-      <c r="C53" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D53" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="F53" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="G53" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="H53" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="B54" s="9" t="inlineStr">
-        <is>
-          <t>840307158673</t>
-        </is>
-      </c>
-      <c r="C54" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D54" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F54" s="10" t="n">
-        <v>24</v>
-      </c>
-      <c r="G54" s="10" t="n">
-        <v>24</v>
-      </c>
-      <c r="H54" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="11" t="n"/>
-      <c r="B55" s="9" t="inlineStr">
-        <is>
-          <t>840307158734</t>
-        </is>
-      </c>
-      <c r="C55" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D55" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F55" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G55" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="H55" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="n"/>
-      <c r="B56" s="9" t="inlineStr">
-        <is>
-          <t>840307158901</t>
-        </is>
-      </c>
-      <c r="C56" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D56" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F56" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G56" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="H56" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="B57" s="9" t="inlineStr">
-        <is>
-          <t>840307159977</t>
-        </is>
-      </c>
-      <c r="C57" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D57" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F57" s="10" t="n">
-        <v>16</v>
-      </c>
-      <c r="G57" s="10" t="n">
-        <v>17</v>
-      </c>
-      <c r="H57" s="10" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="B58" s="9" t="inlineStr">
-        <is>
-          <t>840307160003</t>
-        </is>
-      </c>
-      <c r="C58" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G58" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="H58" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="B59" s="9" t="inlineStr">
-        <is>
-          <t>840307160096</t>
-        </is>
-      </c>
-      <c r="C59" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D59" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F59" s="10" t="n">
-        <v>32</v>
-      </c>
-      <c r="G59" s="10" t="n">
-        <v>21</v>
-      </c>
-      <c r="H59" s="10" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="B60" s="9" t="inlineStr">
-        <is>
-          <t>840307160102</t>
-        </is>
-      </c>
-      <c r="C60" s="10" t="n">
-        <v>29</v>
-      </c>
-      <c r="D60" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" s="10" t="n">
-        <v>29</v>
-      </c>
-      <c r="F60" s="10" t="n">
-        <v>232</v>
-      </c>
-      <c r="G60" s="10" t="n">
-        <v>232</v>
-      </c>
-      <c r="H60" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="B61" s="9" t="inlineStr">
-        <is>
-          <t>840307160164</t>
-        </is>
-      </c>
-      <c r="C61" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D61" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="F61" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="G61" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="H61" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="B62" s="9" t="inlineStr">
-        <is>
-          <t>840307167224</t>
-        </is>
-      </c>
-      <c r="C62" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="G62" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="H62" s="10" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="B63" s="9" t="inlineStr">
-        <is>
-          <t>840307168276</t>
-        </is>
-      </c>
-      <c r="C63" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G63" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="H63" s="10" t="n">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="B64" s="9" t="inlineStr">
-        <is>
-          <t>840307168412</t>
-        </is>
-      </c>
-      <c r="C64" s="10" t="n">
-        <v>37</v>
-      </c>
-      <c r="D64" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" s="10" t="n">
-        <v>37</v>
-      </c>
-      <c r="F64" s="10" t="n">
-        <v>222</v>
-      </c>
-      <c r="G64" s="10" t="n">
-        <v>222</v>
-      </c>
-      <c r="H64" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="B65" s="9" t="inlineStr">
-        <is>
-          <t>840307168474</t>
-        </is>
-      </c>
-      <c r="C65" s="10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D65" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="10" t="n">
-        <v>33</v>
-      </c>
-      <c r="F65" s="10" t="n">
-        <v>198</v>
-      </c>
-      <c r="G65" s="10" t="n">
-        <v>198</v>
-      </c>
-      <c r="H65" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="B66" s="9" t="inlineStr">
-        <is>
-          <t>840307176837</t>
-        </is>
-      </c>
-      <c r="C66" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="D66" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="F66" s="10" t="n">
-        <v>21</v>
-      </c>
-      <c r="G66" s="10" t="n">
-        <v>21</v>
-      </c>
-      <c r="H66" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="B67" s="9" t="inlineStr">
-        <is>
-          <t>840307177551</t>
-        </is>
-      </c>
-      <c r="C67" s="10" t="n">
-        <v>14</v>
-      </c>
-      <c r="D67" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" s="10" t="n">
-        <v>14</v>
-      </c>
-      <c r="F67" s="10" t="n">
-        <v>112</v>
-      </c>
-      <c r="G67" s="10" t="n">
-        <v>112</v>
-      </c>
-      <c r="H67" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="11" t="n"/>
-      <c r="B68" s="9" t="inlineStr">
-        <is>
-          <t>840307178497</t>
-        </is>
-      </c>
-      <c r="C68" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D68" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="F68" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G68" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="H68" s="10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="12" t="n"/>
-      <c r="B69" s="9" t="inlineStr">
-        <is>
-          <t>840307178503</t>
-        </is>
-      </c>
-      <c r="C69" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="D69" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="F69" s="10" t="n">
-        <v>21</v>
-      </c>
-      <c r="G69" s="10" t="n">
-        <v>21</v>
-      </c>
-      <c r="H69" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="9" t="inlineStr">
-        <is>
-          <t>FBA16NVMXLSM</t>
-        </is>
-      </c>
-      <c r="B70" s="9" t="inlineStr">
-        <is>
-          <t>840307168764</t>
-        </is>
-      </c>
-      <c r="C70" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D70" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="E70" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" s="10" t="n">
-        <v>16</v>
-      </c>
-      <c r="G70" s="10" t="n">
-        <v>14</v>
-      </c>
-      <c r="H70" s="10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="11" t="n"/>
-      <c r="B71" s="9" t="inlineStr">
-        <is>
-          <t>840307168771</t>
-        </is>
-      </c>
-      <c r="C71" s="10" t="n">
-        <v>99</v>
-      </c>
-      <c r="D71" s="10" t="n">
-        <v>99</v>
-      </c>
-      <c r="E71" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" s="10" t="n">
-        <v>198</v>
-      </c>
-      <c r="G71" s="10" t="n">
-        <v>240</v>
-      </c>
-      <c r="H71" s="10" t="n">
-        <v>-42</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="11" t="n"/>
-      <c r="B72" s="9" t="inlineStr">
-        <is>
-          <t>840307177452</t>
-        </is>
-      </c>
-      <c r="C72" s="10" t="n">
-        <v>68</v>
-      </c>
-      <c r="D72" s="10" t="n">
-        <v>68</v>
-      </c>
-      <c r="E72" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" s="10" t="n">
-        <v>136</v>
-      </c>
-      <c r="G72" s="10" t="n">
-        <v>98</v>
-      </c>
-      <c r="H72" s="10" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="12" t="n"/>
-      <c r="B73" s="9" t="inlineStr">
-        <is>
-          <t>840307177469</t>
-        </is>
-      </c>
-      <c r="C73" s="10" t="n">
-        <v>111</v>
-      </c>
-      <c r="D73" s="10" t="n">
-        <v>111</v>
-      </c>
-      <c r="E73" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" s="10" t="n">
-        <v>222</v>
-      </c>
-      <c r="G73" s="10" t="n">
-        <v>224</v>
-      </c>
-      <c r="H73" s="10" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="C74" s="13" t="n"/>
-      <c r="D74" s="13" t="n"/>
-      <c r="E74" s="14" t="n">
-        <v>414</v>
-      </c>
-      <c r="F74" s="13" t="n"/>
-      <c r="G74" s="13" t="n"/>
-      <c r="H74" s="14" t="n">
+      <c r="C24" s="13" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13" t="n"/>
+      <c r="G24" s="13" t="n"/>
+      <c r="H24" s="14" t="n">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A69"/>
-    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A20:A23"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:E73">
+  <conditionalFormatting sqref="E2:E23">
     <cfRule type="cellIs" priority="1" operator="notEqual" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -2690,7 +1390,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H73">
+  <conditionalFormatting sqref="H2:H23">
     <cfRule type="cellIs" priority="3" operator="notEqual" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -2777,10 +1477,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="10" t="n">
         <v>6</v>
@@ -2803,10 +1503,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="10" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F3" s="10" t="n">
         <v>96</v>
@@ -2829,10 +1529,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="10" t="n">
         <v>6</v>
@@ -2855,10 +1555,10 @@
         <v>24</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F5" s="10" t="n">
         <v>144</v>
@@ -2881,10 +1581,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="10" t="n">
         <v>18</v>
@@ -2907,10 +1607,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F7" s="10" t="n">
         <v>54</v>
@@ -2959,10 +1659,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="10" t="n">
         <v>8</v>
@@ -2985,10 +1685,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F10" s="10" t="n">
         <v>88</v>
@@ -3011,10 +1711,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="10" t="n">
         <v>8</v>
@@ -3037,10 +1737,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="10" t="n">
         <v>20</v>
@@ -3063,10 +1763,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F13" s="10" t="n">
         <v>84</v>
@@ -3089,10 +1789,10 @@
         <v>33</v>
       </c>
       <c r="D14" s="10" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F14" s="10" t="n">
         <v>264</v>
@@ -3115,10 +1815,10 @@
         <v>6</v>
       </c>
       <c r="D15" s="10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F15" s="10" t="n">
         <v>36</v>
@@ -3141,10 +1841,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="10" t="n">
         <v>40</v>
@@ -3167,10 +1867,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="10" t="n">
         <v>12</v>
@@ -3193,10 +1893,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E18" s="10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F18" s="10" t="n">
         <v>48</v>
@@ -3219,10 +1919,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" s="10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19" s="10" t="n">
         <v>18</v>
@@ -3245,10 +1945,10 @@
         <v>7</v>
       </c>
       <c r="D20" s="10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E20" s="10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F20" s="10" t="n">
         <v>56</v>
@@ -3271,10 +1971,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="10" t="n">
         <v>8</v>
@@ -3297,10 +1997,10 @@
         <v>8</v>
       </c>
       <c r="D22" s="10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E22" s="10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F22" s="10" t="n">
         <v>64</v>
@@ -3323,10 +2023,10 @@
         <v>3</v>
       </c>
       <c r="D23" s="10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" s="10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F23" s="10" t="n">
         <v>24</v>
@@ -3349,10 +2049,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E24" s="10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F24" s="10" t="n">
         <v>24</v>
@@ -3375,10 +2075,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="10" t="n">
         <v>6</v>
@@ -3401,10 +2101,10 @@
         <v>14</v>
       </c>
       <c r="D26" s="10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E26" s="10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F26" s="10" t="n">
         <v>84</v>
@@ -3427,10 +2127,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="10" t="n">
         <v>8</v>
@@ -3453,10 +2153,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="10" t="n">
         <v>8</v>
@@ -3479,10 +2179,10 @@
         <v>2</v>
       </c>
       <c r="D29" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29" s="10" t="n">
         <v>40</v>
@@ -3505,10 +2205,10 @@
         <v>2</v>
       </c>
       <c r="D30" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" s="10" t="n">
         <v>40</v>
@@ -3531,10 +2231,10 @@
         <v>1</v>
       </c>
       <c r="D31" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="10" t="n">
         <v>6</v>
@@ -3557,10 +2257,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="10" t="n">
         <v>20</v>
@@ -3583,10 +2283,10 @@
         <v>3</v>
       </c>
       <c r="D33" s="10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" s="10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F33" s="10" t="n">
         <v>18</v>
@@ -3609,10 +2309,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="10" t="n">
         <v>6</v>
@@ -3635,10 +2335,10 @@
         <v>6</v>
       </c>
       <c r="D35" s="10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E35" s="10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F35" s="10" t="n">
         <v>36</v>
@@ -3661,10 +2361,10 @@
         <v>2</v>
       </c>
       <c r="D36" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E36" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F36" s="10" t="n">
         <v>12</v>
@@ -3687,10 +2387,10 @@
         <v>9</v>
       </c>
       <c r="D37" s="10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E37" s="10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F37" s="10" t="n">
         <v>54</v>
@@ -3713,10 +2413,10 @@
         <v>2</v>
       </c>
       <c r="D38" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E38" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F38" s="10" t="n">
         <v>12</v>
@@ -3739,10 +2439,10 @@
         <v>3</v>
       </c>
       <c r="D39" s="10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39" s="10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F39" s="10" t="n">
         <v>18</v>
@@ -3765,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="D40" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E40" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40" s="10" t="n">
         <v>12</v>
@@ -3791,10 +2491,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="10" t="n">
         <v>8</v>
@@ -3817,10 +2517,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="10" t="n">
         <v>20</v>
@@ -3843,10 +2543,10 @@
         <v>3</v>
       </c>
       <c r="D43" s="10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E43" s="10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F43" s="10" t="n">
         <v>60</v>
@@ -3869,10 +2569,10 @@
         <v>2</v>
       </c>
       <c r="D44" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E44" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F44" s="10" t="n">
         <v>40</v>
@@ -3895,10 +2595,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E45" s="10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F45" s="10" t="n">
         <v>24</v>
@@ -3921,10 +2621,10 @@
         <v>9</v>
       </c>
       <c r="D46" s="10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E46" s="10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F46" s="10" t="n">
         <v>54</v>
@@ -3947,10 +2647,10 @@
         <v>7</v>
       </c>
       <c r="D47" s="10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E47" s="10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F47" s="10" t="n">
         <v>140</v>
@@ -3973,10 +2673,10 @@
         <v>2</v>
       </c>
       <c r="D48" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48" s="10" t="n">
         <v>16</v>
@@ -3999,10 +2699,10 @@
         <v>1</v>
       </c>
       <c r="D49" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="10" t="n">
         <v>8</v>
@@ -4025,10 +2725,10 @@
         <v>1</v>
       </c>
       <c r="D50" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="10" t="n">
         <v>8</v>
@@ -4051,10 +2751,10 @@
         <v>5</v>
       </c>
       <c r="D51" s="10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E51" s="10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F51" s="10" t="n">
         <v>20</v>
@@ -4077,10 +2777,10 @@
         <v>13</v>
       </c>
       <c r="D52" s="10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E52" s="10" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F52" s="10" t="n">
         <v>52</v>
@@ -4103,10 +2803,10 @@
         <v>3</v>
       </c>
       <c r="D53" s="10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E53" s="10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F53" s="10" t="n">
         <v>18</v>
@@ -4129,10 +2829,10 @@
         <v>4</v>
       </c>
       <c r="D54" s="10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E54" s="10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F54" s="10" t="n">
         <v>24</v>
@@ -4155,10 +2855,10 @@
         <v>2</v>
       </c>
       <c r="D55" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E55" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F55" s="10" t="n">
         <v>12</v>
@@ -4181,10 +2881,10 @@
         <v>2</v>
       </c>
       <c r="D56" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E56" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56" s="10" t="n">
         <v>12</v>
@@ -4207,10 +2907,10 @@
         <v>2</v>
       </c>
       <c r="D57" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E57" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57" s="10" t="n">
         <v>16</v>
@@ -4233,10 +2933,10 @@
         <v>1</v>
       </c>
       <c r="D58" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="10" t="n">
         <v>6</v>
@@ -4259,10 +2959,10 @@
         <v>4</v>
       </c>
       <c r="D59" s="10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E59" s="10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F59" s="10" t="n">
         <v>32</v>
@@ -4285,10 +2985,10 @@
         <v>29</v>
       </c>
       <c r="D60" s="10" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E60" s="10" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F60" s="10" t="n">
         <v>232</v>
@@ -4311,10 +3011,10 @@
         <v>5</v>
       </c>
       <c r="D61" s="10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E61" s="10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F61" s="10" t="n">
         <v>30</v>
@@ -4337,10 +3037,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="10" t="n">
         <v>8</v>
@@ -4363,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="D63" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="10" t="n">
         <v>6</v>
@@ -4389,10 +3089,10 @@
         <v>37</v>
       </c>
       <c r="D64" s="10" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E64" s="10" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F64" s="10" t="n">
         <v>222</v>
@@ -4415,10 +3115,10 @@
         <v>33</v>
       </c>
       <c r="D65" s="10" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E65" s="10" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F65" s="10" t="n">
         <v>198</v>
@@ -4441,10 +3141,10 @@
         <v>7</v>
       </c>
       <c r="D66" s="10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E66" s="10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F66" s="10" t="n">
         <v>21</v>
@@ -4467,10 +3167,10 @@
         <v>14</v>
       </c>
       <c r="D67" s="10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E67" s="10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F67" s="10" t="n">
         <v>112</v>
@@ -4493,10 +3193,10 @@
         <v>3</v>
       </c>
       <c r="D68" s="10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E68" s="10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F68" s="10" t="n">
         <v>9</v>
@@ -4519,10 +3219,10 @@
         <v>7</v>
       </c>
       <c r="D69" s="10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E69" s="10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F69" s="10" t="n">
         <v>21</v>
@@ -4647,10 +3347,10 @@
         <v>700</v>
       </c>
       <c r="D74" s="14" t="n">
-        <v>286</v>
+        <v>700</v>
       </c>
       <c r="E74" s="14" t="n">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="F74" s="14" t="n">
         <v>3507</v>
@@ -4777,7 +3477,7 @@
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>NOT AVAILABLE</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="D2" s="9" t="inlineStr">
@@ -4789,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="9" t="n">
         <v>6</v>
@@ -4803,7 +3503,7 @@
         </is>
       </c>
       <c r="J2" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K2" s="17" t="n">
         <v>0</v>
@@ -4822,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="9" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G3" s="9" t="n">
         <v>96</v>
@@ -4836,7 +3536,7 @@
         </is>
       </c>
       <c r="J3" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K3" s="17" t="n">
         <v>0</v>
@@ -4855,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="9" t="n">
         <v>6</v>
@@ -4869,7 +3569,7 @@
         </is>
       </c>
       <c r="J4" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K4" s="17" t="n">
         <v>0</v>
@@ -4888,7 +3588,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="9" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G5" s="9" t="n">
         <v>144</v>
@@ -4902,10 +3602,10 @@
         </is>
       </c>
       <c r="J5" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K5" s="17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -4925,10 +3625,10 @@
         </is>
       </c>
       <c r="J6" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K6" s="17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -4948,7 +3648,7 @@
         </is>
       </c>
       <c r="J7" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K7" s="17" t="n">
         <v>0</v>
@@ -4967,7 +3667,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="9" t="n">
         <v>18</v>
@@ -4981,7 +3681,7 @@
         </is>
       </c>
       <c r="J8" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K8" s="17" t="n">
         <v>0</v>
@@ -5000,7 +3700,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G9" s="9" t="n">
         <v>54</v>
@@ -5014,10 +3714,10 @@
         </is>
       </c>
       <c r="J9" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K9" s="17" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -5037,10 +3737,10 @@
         </is>
       </c>
       <c r="J10" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K10" s="17" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -5060,10 +3760,10 @@
         </is>
       </c>
       <c r="J11" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K11" s="17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -5083,10 +3783,10 @@
         </is>
       </c>
       <c r="J12" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K12" s="17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -5106,7 +3806,7 @@
         </is>
       </c>
       <c r="J13" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K13" s="17" t="n">
         <v>0</v>
@@ -5129,10 +3829,10 @@
         </is>
       </c>
       <c r="J14" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K14" s="17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -5152,10 +3852,10 @@
         </is>
       </c>
       <c r="J15" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K15" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -5171,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>8</v>
@@ -5185,7 +3885,7 @@
         </is>
       </c>
       <c r="J16" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K16" s="17" t="n">
         <v>0</v>
@@ -5204,7 +3904,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>88</v>
@@ -5218,10 +3918,10 @@
         </is>
       </c>
       <c r="J17" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K17" s="17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -5241,10 +3941,10 @@
         </is>
       </c>
       <c r="J18" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K18" s="17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -5264,7 +3964,7 @@
         </is>
       </c>
       <c r="J19" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K19" s="17" t="n">
         <v>0</v>
@@ -5283,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>8</v>
@@ -5297,7 +3997,7 @@
         </is>
       </c>
       <c r="J20" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K20" s="17" t="n">
         <v>0</v>
@@ -5316,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="9" t="n">
         <v>20</v>
@@ -5330,7 +4030,7 @@
         </is>
       </c>
       <c r="J21" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K21" s="17" t="n">
         <v>0</v>
@@ -5349,7 +4049,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G22" s="9" t="n">
         <v>84</v>
@@ -5363,10 +4063,10 @@
         </is>
       </c>
       <c r="J22" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K22" s="17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -5386,7 +4086,7 @@
         </is>
       </c>
       <c r="J23" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K23" s="17" t="n">
         <v>0</v>
@@ -5405,7 +4105,7 @@
         <v>33</v>
       </c>
       <c r="F24" s="9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G24" s="9" t="n">
         <v>264</v>
@@ -5419,10 +4119,10 @@
         </is>
       </c>
       <c r="J24" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K24" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -5442,10 +4142,10 @@
         </is>
       </c>
       <c r="J25" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K25" s="17" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -5465,10 +4165,10 @@
         </is>
       </c>
       <c r="J26" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K26" s="17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -5488,7 +4188,7 @@
         </is>
       </c>
       <c r="J27" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K27" s="17" t="n">
         <v>0</v>
@@ -5507,7 +4207,7 @@
         <v>6</v>
       </c>
       <c r="F28" s="9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G28" s="9" t="n">
         <v>36</v>
@@ -5521,7 +4221,7 @@
         </is>
       </c>
       <c r="J28" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K28" s="17" t="n">
         <v>0</v>
@@ -5540,7 +4240,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" s="9" t="n">
         <v>40</v>
@@ -5554,10 +4254,10 @@
         </is>
       </c>
       <c r="J29" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K29" s="17" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -5577,7 +4277,7 @@
         </is>
       </c>
       <c r="J30" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K30" s="17" t="n">
         <v>0</v>
@@ -5596,7 +4296,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" s="9" t="n">
         <v>12</v>
@@ -5610,7 +4310,7 @@
         </is>
       </c>
       <c r="J31" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K31" s="17" t="n">
         <v>0</v>
@@ -5629,7 +4329,7 @@
         <v>8</v>
       </c>
       <c r="F32" s="9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G32" s="9" t="n">
         <v>48</v>
@@ -5643,10 +4343,10 @@
         </is>
       </c>
       <c r="J32" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K32" s="17" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
@@ -5666,7 +4366,7 @@
         </is>
       </c>
       <c r="J33" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K33" s="17" t="n">
         <v>0</v>
@@ -5685,7 +4385,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G34" s="9" t="n">
         <v>18</v>
@@ -5699,7 +4399,7 @@
         </is>
       </c>
       <c r="J34" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K34" s="17" t="n">
         <v>0</v>
@@ -5718,7 +4418,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G35" s="9" t="n">
         <v>56</v>
@@ -5732,7 +4432,7 @@
         </is>
       </c>
       <c r="J35" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K35" s="17" t="n">
         <v>0</v>
@@ -5751,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="9" t="n">
         <v>8</v>
@@ -5765,7 +4465,7 @@
         </is>
       </c>
       <c r="J36" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K36" s="17" t="n">
         <v>0</v>
@@ -5784,7 +4484,7 @@
         <v>8</v>
       </c>
       <c r="F37" s="9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G37" s="9" t="n">
         <v>64</v>
@@ -5798,10 +4498,10 @@
         </is>
       </c>
       <c r="J37" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K37" s="17" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -5821,7 +4521,7 @@
         </is>
       </c>
       <c r="J38" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K38" s="17" t="n">
         <v>0</v>
@@ -5840,7 +4540,7 @@
         <v>3</v>
       </c>
       <c r="F39" s="9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G39" s="9" t="n">
         <v>24</v>
@@ -5854,7 +4554,7 @@
         </is>
       </c>
       <c r="J39" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K39" s="17" t="n">
         <v>0</v>
@@ -5873,7 +4573,7 @@
         <v>4</v>
       </c>
       <c r="F40" s="9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G40" s="9" t="n">
         <v>24</v>
@@ -5887,10 +4587,10 @@
         </is>
       </c>
       <c r="J40" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K40" s="17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -5910,7 +4610,7 @@
         </is>
       </c>
       <c r="J41" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K41" s="17" t="n">
         <v>0</v>
@@ -5929,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="9" t="n">
         <v>6</v>
@@ -5943,10 +4643,10 @@
         </is>
       </c>
       <c r="J42" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K42" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -5962,7 +4662,7 @@
         <v>14</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G43" s="9" t="n">
         <v>84</v>
@@ -5976,10 +4676,10 @@
         </is>
       </c>
       <c r="J43" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K43" s="17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -5999,7 +4699,7 @@
         </is>
       </c>
       <c r="J44" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K44" s="17" t="n">
         <v>0</v>
@@ -6022,10 +4722,10 @@
         </is>
       </c>
       <c r="J45" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K45" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -6041,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="9" t="n">
         <v>8</v>
@@ -6055,7 +4755,7 @@
         </is>
       </c>
       <c r="J46" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K46" s="17" t="n">
         <v>0</v>
@@ -6074,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="9" t="n">
         <v>8</v>
@@ -6088,7 +4788,7 @@
         </is>
       </c>
       <c r="J47" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K47" s="17" t="n">
         <v>0</v>
@@ -6107,7 +4807,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48" s="9" t="n">
         <v>40</v>
@@ -6121,10 +4821,10 @@
         </is>
       </c>
       <c r="J48" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K48" s="17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -6144,10 +4844,10 @@
         </is>
       </c>
       <c r="J49" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K49" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -6167,7 +4867,7 @@
         </is>
       </c>
       <c r="J50" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K50" s="17" t="n">
         <v>0</v>
@@ -6186,7 +4886,7 @@
         <v>2</v>
       </c>
       <c r="F51" s="9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G51" s="9" t="n">
         <v>40</v>
@@ -6200,7 +4900,7 @@
         </is>
       </c>
       <c r="J51" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K51" s="17" t="n">
         <v>0</v>
@@ -6219,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="9" t="n">
         <v>6</v>
@@ -6233,7 +4933,7 @@
         </is>
       </c>
       <c r="J52" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K52" s="17" t="n">
         <v>0</v>
@@ -6252,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="9" t="n">
         <v>20</v>
@@ -6266,7 +4966,7 @@
         </is>
       </c>
       <c r="J53" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K53" s="17" t="n">
         <v>0</v>
@@ -6285,7 +4985,7 @@
         <v>3</v>
       </c>
       <c r="F54" s="9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G54" s="9" t="n">
         <v>18</v>
@@ -6299,7 +4999,7 @@
         </is>
       </c>
       <c r="J54" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K54" s="17" t="n">
         <v>0</v>
@@ -6318,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="9" t="n">
         <v>6</v>
@@ -6332,7 +5032,7 @@
         </is>
       </c>
       <c r="J55" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K55" s="17" t="n">
         <v>0</v>
@@ -6351,7 +5051,7 @@
         <v>6</v>
       </c>
       <c r="F56" s="9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G56" s="9" t="n">
         <v>36</v>
@@ -6365,7 +5065,7 @@
         </is>
       </c>
       <c r="J56" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K56" s="17" t="n">
         <v>0</v>
@@ -6384,7 +5084,7 @@
         <v>2</v>
       </c>
       <c r="F57" s="9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G57" s="9" t="n">
         <v>12</v>
@@ -6398,10 +5098,10 @@
         </is>
       </c>
       <c r="J57" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K57" s="17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -6421,7 +5121,7 @@
         </is>
       </c>
       <c r="J58" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K58" s="17" t="n">
         <v>0</v>
@@ -6440,7 +5140,7 @@
         <v>9</v>
       </c>
       <c r="F59" s="9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G59" s="9" t="n">
         <v>54</v>
@@ -6454,7 +5154,7 @@
         </is>
       </c>
       <c r="J59" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K59" s="17" t="n">
         <v>0</v>
@@ -6473,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="F60" s="9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" s="9" t="n">
         <v>12</v>
@@ -6487,7 +5187,7 @@
         </is>
       </c>
       <c r="J60" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K60" s="17" t="n">
         <v>0</v>
@@ -6506,7 +5206,7 @@
         <v>3</v>
       </c>
       <c r="F61" s="9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G61" s="9" t="n">
         <v>18</v>
@@ -6520,7 +5220,7 @@
         </is>
       </c>
       <c r="J61" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K61" s="17" t="n">
         <v>0</v>
@@ -6539,7 +5239,7 @@
         <v>2</v>
       </c>
       <c r="F62" s="9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G62" s="9" t="n">
         <v>12</v>
@@ -6553,7 +5253,7 @@
         </is>
       </c>
       <c r="J62" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K62" s="17" t="n">
         <v>0</v>
@@ -6572,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="9" t="n">
         <v>8</v>
@@ -6586,7 +5286,7 @@
         </is>
       </c>
       <c r="J63" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K63" s="17" t="n">
         <v>0</v>
@@ -6605,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="9" t="n">
         <v>20</v>
@@ -6619,10 +5319,10 @@
         </is>
       </c>
       <c r="J64" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K64" s="17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -6642,10 +5342,10 @@
         </is>
       </c>
       <c r="J65" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K65" s="17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -6665,7 +5365,7 @@
         </is>
       </c>
       <c r="J66" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K66" s="17" t="n">
         <v>0</v>
@@ -6684,7 +5384,7 @@
         <v>3</v>
       </c>
       <c r="F67" s="9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G67" s="9" t="n">
         <v>60</v>
@@ -6698,10 +5398,10 @@
         </is>
       </c>
       <c r="J67" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K67" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -6721,10 +5421,10 @@
         </is>
       </c>
       <c r="J68" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K68" s="17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -6744,7 +5444,7 @@
         </is>
       </c>
       <c r="J69" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K69" s="17" t="n">
         <v>0</v>
@@ -6767,10 +5467,10 @@
         </is>
       </c>
       <c r="J70" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K70" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -6786,7 +5486,7 @@
         <v>2</v>
       </c>
       <c r="F71" s="9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G71" s="9" t="n">
         <v>40</v>
@@ -6800,7 +5500,7 @@
         </is>
       </c>
       <c r="J71" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K71" s="17" t="n">
         <v>0</v>
@@ -6819,7 +5519,7 @@
         <v>4</v>
       </c>
       <c r="F72" s="9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G72" s="9" t="n">
         <v>24</v>
@@ -6833,7 +5533,7 @@
         </is>
       </c>
       <c r="J72" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K72" s="17" t="n">
         <v>0</v>
@@ -6852,7 +5552,7 @@
         <v>9</v>
       </c>
       <c r="F73" s="9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G73" s="9" t="n">
         <v>54</v>
@@ -6866,10 +5566,10 @@
         </is>
       </c>
       <c r="J73" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K73" s="17" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74">
@@ -6889,10 +5589,10 @@
         </is>
       </c>
       <c r="J74" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K74" s="17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -6912,10 +5612,10 @@
         </is>
       </c>
       <c r="J75" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K75" s="17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -6935,10 +5635,10 @@
         </is>
       </c>
       <c r="J76" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K76" s="17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
@@ -6958,10 +5658,10 @@
         </is>
       </c>
       <c r="J77" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K77" s="17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
@@ -6981,10 +5681,10 @@
         </is>
       </c>
       <c r="J78" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K78" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -7004,7 +5704,7 @@
         </is>
       </c>
       <c r="J79" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K79" s="17" t="n">
         <v>0</v>
@@ -7023,7 +5723,7 @@
         <v>7</v>
       </c>
       <c r="F80" s="9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G80" s="9" t="n">
         <v>140</v>
@@ -7037,7 +5737,7 @@
         </is>
       </c>
       <c r="J80" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K80" s="17" t="n">
         <v>0</v>
@@ -7056,7 +5756,7 @@
         <v>2</v>
       </c>
       <c r="F81" s="9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G81" s="9" t="n">
         <v>16</v>
@@ -7070,10 +5770,10 @@
         </is>
       </c>
       <c r="J81" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K81" s="17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -7093,7 +5793,7 @@
         </is>
       </c>
       <c r="J82" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K82" s="17" t="n">
         <v>0</v>
@@ -7112,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="9" t="n">
         <v>8</v>
@@ -7126,10 +5826,10 @@
         </is>
       </c>
       <c r="J83" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K83" s="17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -7149,10 +5849,10 @@
         </is>
       </c>
       <c r="J84" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K84" s="17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
@@ -7172,7 +5872,7 @@
         </is>
       </c>
       <c r="J85" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K85" s="17" t="n">
         <v>0</v>
@@ -7191,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" s="9" t="n">
         <v>8</v>
@@ -7205,7 +5905,7 @@
         </is>
       </c>
       <c r="J86" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K86" s="17" t="n">
         <v>0</v>
@@ -7224,7 +5924,7 @@
         <v>5</v>
       </c>
       <c r="F87" s="9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G87" s="9" t="n">
         <v>20</v>
@@ -7238,10 +5938,10 @@
         </is>
       </c>
       <c r="J87" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K87" s="17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
@@ -7261,10 +5961,10 @@
         </is>
       </c>
       <c r="J88" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K88" s="17" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89">
@@ -7284,10 +5984,10 @@
         </is>
       </c>
       <c r="J89" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K89" s="17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -7307,7 +6007,7 @@
         </is>
       </c>
       <c r="J90" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K90" s="17" t="n">
         <v>0</v>
@@ -7326,7 +6026,7 @@
         <v>13</v>
       </c>
       <c r="F91" s="9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G91" s="9" t="n">
         <v>52</v>
@@ -7340,10 +6040,10 @@
         </is>
       </c>
       <c r="J91" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K91" s="17" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
@@ -7363,10 +6063,10 @@
         </is>
       </c>
       <c r="J92" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K92" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -7386,7 +6086,7 @@
         </is>
       </c>
       <c r="J93" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K93" s="17" t="n">
         <v>0</v>
@@ -7405,7 +6105,7 @@
         <v>3</v>
       </c>
       <c r="F94" s="9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G94" s="9" t="n">
         <v>18</v>
@@ -7419,7 +6119,7 @@
         </is>
       </c>
       <c r="J94" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K94" s="17" t="n">
         <v>0</v>
@@ -7438,7 +6138,7 @@
         <v>4</v>
       </c>
       <c r="F95" s="9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G95" s="9" t="n">
         <v>24</v>
@@ -7452,7 +6152,7 @@
         </is>
       </c>
       <c r="J95" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K95" s="17" t="n">
         <v>0</v>
@@ -7471,7 +6171,7 @@
         <v>2</v>
       </c>
       <c r="F96" s="9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G96" s="9" t="n">
         <v>12</v>
@@ -7485,10 +6185,10 @@
         </is>
       </c>
       <c r="J96" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K96" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -7508,7 +6208,7 @@
         </is>
       </c>
       <c r="J97" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K97" s="17" t="n">
         <v>0</v>
@@ -7527,7 +6227,7 @@
         <v>2</v>
       </c>
       <c r="F98" s="9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G98" s="9" t="n">
         <v>12</v>
@@ -7541,7 +6241,7 @@
         </is>
       </c>
       <c r="J98" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K98" s="17" t="n">
         <v>0</v>
@@ -7560,7 +6260,7 @@
         <v>2</v>
       </c>
       <c r="F99" s="9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G99" s="9" t="n">
         <v>16</v>
@@ -7574,10 +6274,10 @@
         </is>
       </c>
       <c r="J99" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K99" s="17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
@@ -7597,7 +6297,7 @@
         </is>
       </c>
       <c r="J100" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K100" s="17" t="n">
         <v>0</v>
@@ -7616,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" s="9" t="n">
         <v>6</v>
@@ -7630,7 +6330,7 @@
         </is>
       </c>
       <c r="J101" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K101" s="17" t="n">
         <v>0</v>
@@ -7649,7 +6349,7 @@
         <v>4</v>
       </c>
       <c r="F102" s="9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G102" s="9" t="n">
         <v>32</v>
@@ -7663,10 +6363,10 @@
         </is>
       </c>
       <c r="J102" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K102" s="17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
@@ -7686,7 +6386,7 @@
         </is>
       </c>
       <c r="J103" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K103" s="17" t="n">
         <v>0</v>
@@ -7705,7 +6405,7 @@
         <v>29</v>
       </c>
       <c r="F104" s="9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G104" s="9" t="n">
         <v>232</v>
@@ -7719,10 +6419,10 @@
         </is>
       </c>
       <c r="J104" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K104" s="17" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
@@ -7742,7 +6442,7 @@
         </is>
       </c>
       <c r="J105" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K105" s="17" t="n">
         <v>0</v>
@@ -7761,7 +6461,7 @@
         <v>5</v>
       </c>
       <c r="F106" s="9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G106" s="9" t="n">
         <v>30</v>
@@ -7775,7 +6475,7 @@
         </is>
       </c>
       <c r="J106" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K106" s="17" t="n">
         <v>0</v>
@@ -7794,7 +6494,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" s="9" t="n">
         <v>8</v>
@@ -7808,10 +6508,10 @@
         </is>
       </c>
       <c r="J107" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K107" s="17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
@@ -7831,10 +6531,10 @@
         </is>
       </c>
       <c r="J108" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K108" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109">
@@ -7854,7 +6554,7 @@
         </is>
       </c>
       <c r="J109" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K109" s="17" t="n">
         <v>0</v>
@@ -7873,7 +6573,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" s="9" t="n">
         <v>6</v>
@@ -7887,10 +6587,10 @@
         </is>
       </c>
       <c r="J110" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K110" s="17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111">
@@ -7910,10 +6610,10 @@
         </is>
       </c>
       <c r="J111" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K111" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -7929,7 +6629,7 @@
         <v>37</v>
       </c>
       <c r="F112" s="9" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G112" s="9" t="n">
         <v>222</v>
@@ -7943,10 +6643,10 @@
         </is>
       </c>
       <c r="J112" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K112" s="17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113">
@@ -7966,7 +6666,7 @@
         </is>
       </c>
       <c r="J113" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K113" s="17" t="n">
         <v>0</v>
@@ -7985,7 +6685,7 @@
         <v>33</v>
       </c>
       <c r="F114" s="9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G114" s="9" t="n">
         <v>198</v>
@@ -7999,10 +6699,10 @@
         </is>
       </c>
       <c r="J114" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K114" s="17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115">
@@ -8022,7 +6722,7 @@
         </is>
       </c>
       <c r="J115" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K115" s="17" t="n">
         <v>0</v>
@@ -8041,7 +6741,7 @@
         <v>7</v>
       </c>
       <c r="F116" s="9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G116" s="9" t="n">
         <v>21</v>
@@ -8055,7 +6755,7 @@
         </is>
       </c>
       <c r="J116" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K116" s="17" t="n">
         <v>0</v>
@@ -8074,7 +6774,7 @@
         <v>14</v>
       </c>
       <c r="F117" s="9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G117" s="9" t="n">
         <v>112</v>
@@ -8088,10 +6788,10 @@
         </is>
       </c>
       <c r="J117" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K117" s="17" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118">
@@ -8111,10 +6811,10 @@
         </is>
       </c>
       <c r="J118" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K118" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -8134,7 +6834,7 @@
         </is>
       </c>
       <c r="J119" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K119" s="17" t="n">
         <v>0</v>
@@ -8153,7 +6853,7 @@
         <v>3</v>
       </c>
       <c r="F120" s="9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G120" s="9" t="n">
         <v>9</v>
@@ -8167,10 +6867,10 @@
         </is>
       </c>
       <c r="J120" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K120" s="17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -8190,7 +6890,7 @@
         </is>
       </c>
       <c r="J121" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K121" s="17" t="n">
         <v>0</v>
@@ -8209,7 +6909,7 @@
         <v>7</v>
       </c>
       <c r="F122" s="9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G122" s="9" t="n">
         <v>21</v>
@@ -8223,7 +6923,7 @@
         </is>
       </c>
       <c r="J122" s="17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K122" s="17" t="n">
         <v>0</v>
